--- a/PredictionSheets/VM 2014 Tippekonkuranse - Ørjan.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse - Ørjan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Webstep\BackupFolder\MyDownloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Gruppespilltipp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="137">
   <si>
     <t>Group A</t>
   </si>
@@ -424,37 +424,19 @@
     <t>Brasil</t>
   </si>
   <si>
-    <t>Kroatia</t>
-  </si>
-  <si>
     <t>Spania</t>
   </si>
   <si>
-    <t>Nederland</t>
-  </si>
-  <si>
-    <t>Kolumbia</t>
-  </si>
-  <si>
-    <t>Elfenbenskysten</t>
-  </si>
-  <si>
     <t>Italia</t>
   </si>
   <si>
-    <t>Sveits</t>
-  </si>
-  <si>
     <t>Frankrike</t>
   </si>
   <si>
-    <t>Tyskland</t>
-  </si>
-  <si>
-    <t>Belgia</t>
-  </si>
-  <si>
     <t>Russland</t>
+  </si>
+  <si>
+    <t>Côte d'ivoire</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1788,7 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -2815,8 +2797,8 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,24 +2824,24 @@
         <v>131</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>136</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>32</v>
@@ -2867,21 +2849,21 @@
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>133</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>137</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>16</v>
@@ -2890,7 +2872,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2909,18 +2891,18 @@
         <v>16</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>133</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>137</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>26</v>
@@ -2942,10 +2924,10 @@
         <v>26</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2955,10 +2937,10 @@
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="C20" s="43" t="s">
         <v>26</v>
